--- a/صيدليات دكتور مصطفي طلعت_2026-01-12_21-36.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-12_21-36.xlsx
@@ -83,66 +83,69 @@
     <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
   </si>
   <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>CETAL 120 MG 5 INFANTILE SUPP</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>CETAL 250MG/5ML 60ML SUSP</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>CLATEX 75MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>CLAVIMOX 642.9MG/5ML PD. FOR ORAL SUSP. 70ML</t>
+  </si>
+  <si>
+    <t>COLD FREE 20 TAB.</t>
+  </si>
+  <si>
+    <t>CONCOR AMLO 5/5 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>CONCOR COR 2.5MG 30 TABLETS</t>
+  </si>
+  <si>
+    <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>CONTROLOC 40MG 14 GASTRORESISTANT TAB</t>
+  </si>
+  <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
     <t>7:0</t>
   </si>
   <si>
-    <t>CETAL 120 MG 5 INFANTILE SUPP</t>
-  </si>
-  <si>
-    <t>10:0</t>
-  </si>
-  <si>
-    <t>CETAL 250MG/5ML 60ML SUSP</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>CLATEX 75MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>CLAVIMOX 642.9MG/5ML PD. FOR ORAL SUSP. 70ML</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>COLD FREE 20 TAB.</t>
-  </si>
-  <si>
-    <t>CONCOR AMLO 5/5 MG 30 TABS</t>
-  </si>
-  <si>
-    <t>0:1</t>
-  </si>
-  <si>
-    <t>CONCOR COR 2.5MG 30 TABLETS</t>
-  </si>
-  <si>
-    <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>CONTROLOC 40MG 14 GASTRORESISTANT TAB</t>
-  </si>
-  <si>
-    <t>DANSET 8MG/4ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
     <t>DIASMECT 20% SUSP. 60ML</t>
   </si>
   <si>
@@ -240,9 +243,6 @@
   </si>
   <si>
     <t>OPLEX-N SYRUP 125ML</t>
-  </si>
-  <si>
-    <t>6:0</t>
   </si>
   <si>
     <t>OTAL EAR DROPS 5 ML</t>
@@ -1196,7 +1196,7 @@
       </c>
       <c r="M13" s="9"/>
       <c t="s" r="N13" s="7">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" ht="24.75" customHeight="1">
@@ -1204,7 +1204,7 @@
         <v>11</v>
       </c>
       <c t="s" r="B14" s="7">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -1212,7 +1212,7 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c t="s" r="H14" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
@@ -1230,7 +1230,7 @@
         <v>12</v>
       </c>
       <c t="s" r="B15" s="7">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -1248,7 +1248,7 @@
       </c>
       <c r="M15" s="9"/>
       <c t="s" r="N15" s="7">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" ht="24.75" customHeight="1">
@@ -1256,7 +1256,7 @@
         <v>13</v>
       </c>
       <c t="s" r="B16" s="7">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1264,7 +1264,7 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c t="s" r="H16" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
@@ -1282,7 +1282,7 @@
         <v>14</v>
       </c>
       <c t="s" r="B17" s="7">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1290,7 +1290,7 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
@@ -1326,7 +1326,7 @@
       </c>
       <c r="M18" s="9"/>
       <c t="s" r="N18" s="7">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" ht="24.75" customHeight="1">
@@ -1368,7 +1368,7 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
@@ -1420,7 +1420,7 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
@@ -1430,7 +1430,7 @@
       </c>
       <c r="M22" s="9"/>
       <c t="s" r="N22" s="7">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -1446,7 +1446,7 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
@@ -1498,7 +1498,7 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
@@ -1516,7 +1516,7 @@
         <v>23</v>
       </c>
       <c t="s" r="B26" s="7">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1524,7 +1524,7 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
@@ -1542,7 +1542,7 @@
         <v>24</v>
       </c>
       <c t="s" r="B27" s="7">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1560,7 +1560,7 @@
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" ht="25.5" customHeight="1">
@@ -1568,7 +1568,7 @@
         <v>25</v>
       </c>
       <c t="s" r="B28" s="7">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1594,7 +1594,7 @@
         <v>26</v>
       </c>
       <c t="s" r="B29" s="7">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" ht="25.5" customHeight="1">
@@ -1620,7 +1620,7 @@
         <v>27</v>
       </c>
       <c t="s" r="B30" s="7">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1628,7 +1628,7 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
@@ -1646,7 +1646,7 @@
         <v>28</v>
       </c>
       <c t="s" r="B31" s="7">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1672,7 +1672,7 @@
         <v>29</v>
       </c>
       <c t="s" r="B32" s="7">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1690,7 +1690,7 @@
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1698,7 +1698,7 @@
         <v>30</v>
       </c>
       <c t="s" r="B33" s="7">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1724,7 +1724,7 @@
         <v>31</v>
       </c>
       <c t="s" r="B34" s="7">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1742,7 +1742,7 @@
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -1750,7 +1750,7 @@
         <v>32</v>
       </c>
       <c t="s" r="B35" s="7">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1758,7 +1758,7 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
@@ -1776,7 +1776,7 @@
         <v>33</v>
       </c>
       <c t="s" r="B36" s="7">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -1784,7 +1784,7 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
@@ -1802,7 +1802,7 @@
         <v>34</v>
       </c>
       <c t="s" r="B37" s="7">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1828,7 +1828,7 @@
         <v>35</v>
       </c>
       <c t="s" r="B38" s="7">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -1854,7 +1854,7 @@
         <v>36</v>
       </c>
       <c t="s" r="B39" s="7">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -1862,7 +1862,7 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
@@ -1880,7 +1880,7 @@
         <v>37</v>
       </c>
       <c t="s" r="B40" s="7">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -1906,7 +1906,7 @@
         <v>38</v>
       </c>
       <c t="s" r="B41" s="7">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -1932,7 +1932,7 @@
         <v>39</v>
       </c>
       <c t="s" r="B42" s="7">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -1940,7 +1940,7 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
@@ -1950,7 +1950,7 @@
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -1958,7 +1958,7 @@
         <v>40</v>
       </c>
       <c t="s" r="B43" s="7">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -1984,7 +1984,7 @@
         <v>41</v>
       </c>
       <c t="s" r="B44" s="7">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -2002,7 +2002,7 @@
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45" ht="25.5" customHeight="1">
@@ -2010,7 +2010,7 @@
         <v>42</v>
       </c>
       <c t="s" r="B45" s="7">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -2018,7 +2018,7 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
@@ -2036,7 +2036,7 @@
         <v>43</v>
       </c>
       <c t="s" r="B46" s="7">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -2062,7 +2062,7 @@
         <v>44</v>
       </c>
       <c t="s" r="B47" s="7">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -2080,7 +2080,7 @@
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
@@ -2088,7 +2088,7 @@
         <v>45</v>
       </c>
       <c t="s" r="B48" s="7">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -2096,7 +2096,7 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c t="s" r="B49" s="7">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -2122,7 +2122,7 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
@@ -2140,7 +2140,7 @@
         <v>47</v>
       </c>
       <c t="s" r="B50" s="7">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -2166,7 +2166,7 @@
         <v>48</v>
       </c>
       <c t="s" r="B51" s="7">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -2192,7 +2192,7 @@
         <v>49</v>
       </c>
       <c t="s" r="B52" s="7">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -2200,7 +2200,7 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
@@ -2218,7 +2218,7 @@
         <v>50</v>
       </c>
       <c t="s" r="B53" s="7">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -2226,7 +2226,7 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
@@ -2252,7 +2252,7 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
@@ -2278,7 +2278,7 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
@@ -2304,7 +2304,7 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
@@ -2356,7 +2356,7 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
@@ -2382,7 +2382,7 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
@@ -2418,7 +2418,7 @@
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="61" ht="24.75" customHeight="1">
@@ -2470,7 +2470,7 @@
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="63" ht="25.5" customHeight="1">
@@ -2538,7 +2538,7 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
@@ -2668,7 +2668,7 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
@@ -2678,7 +2678,7 @@
       </c>
       <c r="M70" s="9"/>
       <c t="s" r="N70" s="7">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="71" ht="24.75" customHeight="1">
@@ -2756,7 +2756,7 @@
       </c>
       <c r="M73" s="9"/>
       <c t="s" r="N73" s="7">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="74" ht="24.75" customHeight="1">
@@ -2772,7 +2772,7 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
@@ -2808,7 +2808,7 @@
       </c>
       <c r="M75" s="9"/>
       <c t="s" r="N75" s="7">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="76" ht="24.75" customHeight="1">
@@ -2834,7 +2834,7 @@
       </c>
       <c r="M76" s="9"/>
       <c t="s" r="N76" s="7">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -2928,7 +2928,7 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
@@ -3016,7 +3016,7 @@
       </c>
       <c r="M83" s="9"/>
       <c t="s" r="N83" s="7">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84" ht="24.75" customHeight="1">
@@ -3032,7 +3032,7 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c t="s" r="H84" s="8">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
@@ -3042,7 +3042,7 @@
       </c>
       <c r="M84" s="9"/>
       <c t="s" r="N84" s="7">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="85" ht="25.5" customHeight="1">
@@ -3058,7 +3058,7 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c t="s" r="H85" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
